--- a/output.xlsx
+++ b/output.xlsx
@@ -16,6 +16,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
+    <t>Vertical Displacement</t>
+  </si>
+  <si>
+    <t>Horizontal Displacement</t>
+  </si>
+  <si>
     <t>Expansion</t>
   </si>
   <si>
@@ -34,13 +40,7 @@
     <t>Tensile 2</t>
   </si>
   <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>Horizontal Displacement</t>
-  </si>
-  <si>
-    <t>Vertical Displacements</t>
+    <t>General Stress Ratio</t>
   </si>
   <si>
     <t>Point</t>
@@ -530,704 +530,704 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>41.8</v>
+      <c r="B2" t="s">
+        <v>32</v>
       </c>
       <c r="C2">
-        <v>90.3</v>
+        <v>40.88</v>
       </c>
       <c r="D2">
-        <v>36.2</v>
+        <v>41.83</v>
       </c>
       <c r="E2">
-        <v>36.2</v>
+        <v>90.26000000000001</v>
       </c>
       <c r="F2">
-        <v>81.90000000000001</v>
+        <v>36.21</v>
       </c>
       <c r="G2">
-        <v>83.5</v>
+        <v>36.16</v>
       </c>
       <c r="H2">
+        <v>81.91</v>
+      </c>
+      <c r="I2">
+        <v>83.51000000000001</v>
+      </c>
+      <c r="J2">
         <v>78.5</v>
-      </c>
-      <c r="I2">
-        <v>40.9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>43.7</v>
+      <c r="B3" t="s">
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>90.3</v>
+        <v>44.14</v>
       </c>
       <c r="D3">
-        <v>37.3</v>
+        <v>43.73</v>
       </c>
       <c r="E3">
-        <v>37.2</v>
+        <v>90.26000000000001</v>
       </c>
       <c r="F3">
-        <v>83.3</v>
+        <v>37.32</v>
       </c>
       <c r="G3">
-        <v>85.90000000000001</v>
+        <v>37.25</v>
       </c>
       <c r="H3">
+        <v>83.26000000000001</v>
+      </c>
+      <c r="I3">
+        <v>85.89</v>
+      </c>
+      <c r="J3">
         <v>80</v>
-      </c>
-      <c r="I3">
-        <v>44.1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
-        <v>46.9</v>
+      <c r="B4" t="s">
+        <v>32</v>
       </c>
       <c r="C4">
-        <v>90.3</v>
+        <v>36.07</v>
       </c>
       <c r="D4">
-        <v>35.8</v>
+        <v>46.94</v>
       </c>
       <c r="E4">
-        <v>35.8</v>
+        <v>90.26000000000001</v>
       </c>
       <c r="F4">
+        <v>35.85</v>
+      </c>
+      <c r="G4">
+        <v>35.82</v>
+      </c>
+      <c r="H4">
         <v>84.40000000000001</v>
       </c>
-      <c r="G4">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="H4">
+      <c r="I4">
+        <v>89.42</v>
+      </c>
+      <c r="J4">
         <v>82.3</v>
-      </c>
-      <c r="I4">
-        <v>36.1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
-        <v>46.9</v>
+      <c r="B5" t="s">
+        <v>32</v>
       </c>
       <c r="C5">
-        <v>90.3</v>
+        <v>36.03</v>
       </c>
       <c r="D5">
-        <v>35.9</v>
+        <v>46.92</v>
       </c>
       <c r="E5">
-        <v>35.8</v>
+        <v>90.26000000000001</v>
       </c>
       <c r="F5">
-        <v>85.5</v>
+        <v>35.87</v>
       </c>
       <c r="G5">
-        <v>89.3</v>
+        <v>35.84</v>
       </c>
       <c r="H5">
+        <v>85.51000000000001</v>
+      </c>
+      <c r="I5">
+        <v>89.34</v>
+      </c>
+      <c r="J5">
         <v>82.09999999999999</v>
-      </c>
-      <c r="I5">
-        <v>36</v>
-      </c>
-      <c r="J5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
-        <v>45.3</v>
+      <c r="B6" t="s">
+        <v>32</v>
       </c>
       <c r="C6">
-        <v>90.3</v>
+        <v>44.2</v>
       </c>
       <c r="D6">
-        <v>37.3</v>
+        <v>45.34</v>
       </c>
       <c r="E6">
-        <v>37.2</v>
+        <v>90.26000000000001</v>
       </c>
       <c r="F6">
-        <v>83.90000000000001</v>
+        <v>37.26</v>
       </c>
       <c r="G6">
-        <v>87</v>
+        <v>37.18</v>
       </c>
       <c r="H6">
+        <v>83.93000000000001</v>
+      </c>
+      <c r="I6">
+        <v>86.97</v>
+      </c>
+      <c r="J6">
         <v>80.59999999999999</v>
-      </c>
-      <c r="I6">
-        <v>44.2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7">
-        <v>41.8</v>
+      <c r="B7" t="s">
+        <v>32</v>
       </c>
       <c r="C7">
-        <v>90.3</v>
+        <v>40.69</v>
       </c>
       <c r="D7">
+        <v>41.76</v>
+      </c>
+      <c r="E7">
+        <v>90.26000000000001</v>
+      </c>
+      <c r="F7">
         <v>36.2</v>
       </c>
-      <c r="E7">
-        <v>36.2</v>
-      </c>
-      <c r="F7">
-        <v>82.3</v>
-      </c>
       <c r="G7">
-        <v>83.59999999999999</v>
+        <v>36.15</v>
       </c>
       <c r="H7">
+        <v>82.26000000000001</v>
+      </c>
+      <c r="I7">
+        <v>83.56</v>
+      </c>
+      <c r="J7">
         <v>78.5</v>
-      </c>
-      <c r="I7">
-        <v>40.7</v>
-      </c>
-      <c r="J7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8">
-        <v>41.4</v>
+      <c r="B8" t="s">
+        <v>32</v>
       </c>
       <c r="C8">
-        <v>90.3</v>
+        <v>40.12</v>
       </c>
       <c r="D8">
+        <v>41.38</v>
+      </c>
+      <c r="E8">
+        <v>90.26000000000001</v>
+      </c>
+      <c r="F8">
         <v>36.3</v>
       </c>
-      <c r="E8">
-        <v>36.2</v>
-      </c>
-      <c r="F8">
-        <v>81.59999999999999</v>
-      </c>
       <c r="G8">
-        <v>83</v>
+        <v>36.25</v>
       </c>
       <c r="H8">
+        <v>81.62</v>
+      </c>
+      <c r="I8">
+        <v>82.97</v>
+      </c>
+      <c r="J8">
         <v>78.09999999999999</v>
-      </c>
-      <c r="I8">
-        <v>40.1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9">
-        <v>42</v>
+      <c r="B9" t="s">
+        <v>32</v>
       </c>
       <c r="C9">
-        <v>90.3</v>
+        <v>40.69</v>
       </c>
       <c r="D9">
-        <v>36.1</v>
+        <v>42.05</v>
       </c>
       <c r="E9">
+        <v>90.26000000000001</v>
+      </c>
+      <c r="F9">
+        <v>36.06</v>
+      </c>
+      <c r="G9">
         <v>36</v>
       </c>
-      <c r="F9">
-        <v>82.2</v>
-      </c>
-      <c r="G9">
-        <v>83.59999999999999</v>
-      </c>
       <c r="H9">
+        <v>82.18000000000001</v>
+      </c>
+      <c r="I9">
+        <v>83.65000000000001</v>
+      </c>
+      <c r="J9">
         <v>78.5</v>
-      </c>
-      <c r="I9">
-        <v>40.7</v>
-      </c>
-      <c r="J9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10">
-        <v>44.3</v>
+      <c r="B10" t="s">
+        <v>32</v>
       </c>
       <c r="C10">
-        <v>90.3</v>
+        <v>43.93</v>
       </c>
       <c r="D10">
-        <v>37.1</v>
+        <v>44.32</v>
       </c>
       <c r="E10">
-        <v>37.1</v>
+        <v>90.26000000000001</v>
       </c>
       <c r="F10">
-        <v>84.90000000000001</v>
+        <v>37.12</v>
       </c>
       <c r="G10">
-        <v>86.3</v>
+        <v>37.06</v>
       </c>
       <c r="H10">
+        <v>84.93000000000001</v>
+      </c>
+      <c r="I10">
+        <v>86.31999999999999</v>
+      </c>
+      <c r="J10">
         <v>80.2</v>
-      </c>
-      <c r="I10">
-        <v>43.9</v>
-      </c>
-      <c r="J10" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11">
-        <v>49.4</v>
+      <c r="B11" t="s">
+        <v>32</v>
       </c>
       <c r="C11">
-        <v>90.3</v>
+        <v>49.3</v>
       </c>
       <c r="D11">
-        <v>37.8</v>
+        <v>49.39</v>
       </c>
       <c r="E11">
-        <v>37.7</v>
+        <v>90.26000000000001</v>
       </c>
       <c r="F11">
+        <v>37.75</v>
+      </c>
+      <c r="G11">
+        <v>37.72</v>
+      </c>
+      <c r="H11">
+        <v>84.12</v>
+      </c>
+      <c r="I11">
+        <v>92.28</v>
+      </c>
+      <c r="J11">
         <v>84.09999999999999</v>
-      </c>
-      <c r="G11">
-        <v>92.3</v>
-      </c>
-      <c r="H11">
-        <v>84.09999999999999</v>
-      </c>
-      <c r="I11">
-        <v>49.3</v>
-      </c>
-      <c r="J11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12">
-        <v>48.8</v>
+      <c r="B12" t="s">
+        <v>33</v>
       </c>
       <c r="C12">
-        <v>90.3</v>
+        <v>46.98</v>
       </c>
       <c r="D12">
-        <v>37.5</v>
+        <v>48.85</v>
       </c>
       <c r="E12">
-        <v>37.4</v>
+        <v>90.26000000000001</v>
       </c>
       <c r="F12">
+        <v>37.51</v>
+      </c>
+      <c r="G12">
+        <v>37.44</v>
+      </c>
+      <c r="H12">
         <v>84.8</v>
       </c>
-      <c r="G12">
-        <v>91.7</v>
-      </c>
-      <c r="H12">
+      <c r="I12">
+        <v>91.73</v>
+      </c>
+      <c r="J12">
         <v>83.7</v>
-      </c>
-      <c r="I12">
-        <v>47</v>
-      </c>
-      <c r="J12" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13">
-        <v>43.2</v>
+      <c r="B13" t="s">
+        <v>34</v>
       </c>
       <c r="C13">
-        <v>100.2</v>
+        <v>85.54000000000001</v>
       </c>
       <c r="D13">
-        <v>43.8</v>
+        <v>43.19</v>
       </c>
       <c r="E13">
-        <v>43.7</v>
+        <v>100.15</v>
       </c>
       <c r="F13">
-        <v>89.59999999999999</v>
+        <v>43.85</v>
       </c>
       <c r="G13">
+        <v>43.67</v>
+      </c>
+      <c r="H13">
+        <v>89.55</v>
+      </c>
+      <c r="I13">
         <v>91.3</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>86.2</v>
-      </c>
-      <c r="I13">
-        <v>85.5</v>
-      </c>
-      <c r="J13" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14">
-        <v>44</v>
+      <c r="B14" t="s">
+        <v>34</v>
       </c>
       <c r="C14">
-        <v>100.2</v>
+        <v>87.92</v>
       </c>
       <c r="D14">
-        <v>43.8</v>
+        <v>43.96</v>
       </c>
       <c r="E14">
-        <v>43.7</v>
+        <v>100.15</v>
       </c>
       <c r="F14">
-        <v>91.40000000000001</v>
+        <v>43.76</v>
       </c>
       <c r="G14">
+        <v>43.66</v>
+      </c>
+      <c r="H14">
+        <v>91.38</v>
+      </c>
+      <c r="I14">
         <v>92.3</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>86.8</v>
-      </c>
-      <c r="I14">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="J14" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15">
-        <v>39.4</v>
+      <c r="B15" t="s">
+        <v>35</v>
       </c>
       <c r="C15">
-        <v>75</v>
+        <v>135.11</v>
       </c>
       <c r="D15">
-        <v>32.7</v>
+        <v>39.45</v>
       </c>
       <c r="E15">
-        <v>31.6</v>
+        <v>74.97</v>
       </c>
       <c r="F15">
-        <v>70.8</v>
+        <v>32.68</v>
       </c>
       <c r="G15">
+        <v>31.57</v>
+      </c>
+      <c r="H15">
+        <v>70.81999999999999</v>
+      </c>
+      <c r="I15">
         <v>74.8</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>68.59999999999999</v>
-      </c>
-      <c r="I15">
-        <v>135.1</v>
-      </c>
-      <c r="J15" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16">
-        <v>34.4</v>
+      <c r="B16" t="s">
+        <v>35</v>
       </c>
       <c r="C16">
-        <v>75</v>
+        <v>144.85</v>
       </c>
       <c r="D16">
-        <v>31.4</v>
+        <v>34.41</v>
       </c>
       <c r="E16">
-        <v>30.5</v>
+        <v>74.97</v>
       </c>
       <c r="F16">
-        <v>68</v>
+        <v>31.45</v>
       </c>
       <c r="G16">
-        <v>70.90000000000001</v>
+        <v>30.54</v>
       </c>
       <c r="H16">
+        <v>68.03</v>
+      </c>
+      <c r="I16">
+        <v>70.86</v>
+      </c>
+      <c r="J16">
         <v>66.09999999999999</v>
-      </c>
-      <c r="I16">
-        <v>144.8</v>
-      </c>
-      <c r="J16" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B17">
-        <v>30.2</v>
+      <c r="B17" t="s">
+        <v>35</v>
       </c>
       <c r="C17">
-        <v>75</v>
+        <v>167.62</v>
       </c>
       <c r="D17">
+        <v>30.16</v>
+      </c>
+      <c r="E17">
+        <v>74.97</v>
+      </c>
+      <c r="F17">
         <v>32.8</v>
       </c>
-      <c r="E17">
-        <v>31.9</v>
-      </c>
-      <c r="F17">
-        <v>66.59999999999999</v>
-      </c>
       <c r="G17">
-        <v>67.90000000000001</v>
+        <v>31.94</v>
       </c>
       <c r="H17">
+        <v>66.64</v>
+      </c>
+      <c r="I17">
+        <v>67.93000000000001</v>
+      </c>
+      <c r="J17">
         <v>64.2</v>
-      </c>
-      <c r="I17">
-        <v>167.6</v>
-      </c>
-      <c r="J17" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18">
-        <v>81.59999999999999</v>
+      <c r="B18" t="s">
+        <v>36</v>
       </c>
       <c r="C18">
-        <v>75</v>
+        <v>295.34</v>
       </c>
       <c r="D18">
-        <v>45.7</v>
+        <v>81.62</v>
       </c>
       <c r="E18">
-        <v>43.1</v>
+        <v>74.97</v>
       </c>
       <c r="F18">
-        <v>66.59999999999999</v>
+        <v>45.67</v>
       </c>
       <c r="G18">
-        <v>99.09999999999999</v>
+        <v>43.06</v>
       </c>
       <c r="H18">
+        <v>66.64</v>
+      </c>
+      <c r="I18">
+        <v>99.09</v>
+      </c>
+      <c r="J18">
         <v>85.8</v>
-      </c>
-      <c r="I18">
-        <v>295.3</v>
-      </c>
-      <c r="J18" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B19">
-        <v>71.5</v>
+      <c r="B19" t="s">
+        <v>37</v>
       </c>
       <c r="C19">
-        <v>75</v>
+        <v>237.33</v>
       </c>
       <c r="D19">
-        <v>45.4</v>
+        <v>71.45999999999999</v>
       </c>
       <c r="E19">
-        <v>42.9</v>
+        <v>74.97</v>
       </c>
       <c r="F19">
-        <v>66.59999999999999</v>
+        <v>45.35</v>
       </c>
       <c r="G19">
-        <v>91.40000000000001</v>
+        <v>42.93</v>
       </c>
       <c r="H19">
+        <v>66.64</v>
+      </c>
+      <c r="I19">
+        <v>91.39</v>
+      </c>
+      <c r="J19">
         <v>79.40000000000001</v>
-      </c>
-      <c r="I19">
-        <v>237.3</v>
-      </c>
-      <c r="J19" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B20">
-        <v>28.8</v>
+      <c r="B20" t="s">
+        <v>35</v>
       </c>
       <c r="C20">
-        <v>75</v>
+        <v>118.38</v>
       </c>
       <c r="D20">
-        <v>33.5</v>
+        <v>28.79</v>
       </c>
       <c r="E20">
-        <v>32.8</v>
+        <v>74.97</v>
       </c>
       <c r="F20">
-        <v>66.59999999999999</v>
+        <v>33.54</v>
       </c>
       <c r="G20">
-        <v>65.8</v>
+        <v>32.81</v>
       </c>
       <c r="H20">
+        <v>66.64</v>
+      </c>
+      <c r="I20">
+        <v>65.84999999999999</v>
+      </c>
+      <c r="J20">
         <v>63.2</v>
-      </c>
-      <c r="I20">
-        <v>118.4</v>
-      </c>
-      <c r="J20" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B21">
-        <v>31.4</v>
+      <c r="B21" t="s">
+        <v>35</v>
       </c>
       <c r="C21">
-        <v>75</v>
+        <v>109.38</v>
       </c>
       <c r="D21">
-        <v>33.3</v>
+        <v>31.36</v>
       </c>
       <c r="E21">
-        <v>32.6</v>
+        <v>74.97</v>
       </c>
       <c r="F21">
+        <v>33.34</v>
+      </c>
+      <c r="G21">
+        <v>32.55</v>
+      </c>
+      <c r="H21">
         <v>67.09999999999999</v>
       </c>
-      <c r="G21">
-        <v>68.3</v>
-      </c>
-      <c r="H21">
+      <c r="I21">
+        <v>68.26000000000001</v>
+      </c>
+      <c r="J21">
         <v>64.40000000000001</v>
-      </c>
-      <c r="I21">
-        <v>109.4</v>
-      </c>
-      <c r="J21" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B22">
-        <v>42.7</v>
+      <c r="B22" t="s">
+        <v>35</v>
       </c>
       <c r="C22">
-        <v>75</v>
+        <v>60.77</v>
       </c>
       <c r="D22">
-        <v>33.7</v>
+        <v>42.68</v>
       </c>
       <c r="E22">
-        <v>32.4</v>
+        <v>74.97</v>
       </c>
       <c r="F22">
-        <v>72.09999999999999</v>
+        <v>33.71</v>
       </c>
       <c r="G22">
-        <v>77.09999999999999</v>
+        <v>32.43</v>
       </c>
       <c r="H22">
+        <v>72.06</v>
+      </c>
+      <c r="I22">
+        <v>77.06</v>
+      </c>
+      <c r="J22">
         <v>70</v>
-      </c>
-      <c r="I22">
-        <v>60.8</v>
-      </c>
-      <c r="J22" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B23">
-        <v>47.3</v>
+      <c r="B23" t="s">
+        <v>38</v>
       </c>
       <c r="C23">
-        <v>90.3</v>
+        <v>54.05</v>
       </c>
       <c r="D23">
-        <v>40.6</v>
+        <v>47.32</v>
       </c>
       <c r="E23">
-        <v>38.9</v>
+        <v>90.26000000000001</v>
       </c>
       <c r="F23">
-        <v>85.40000000000001</v>
+        <v>40.58</v>
       </c>
       <c r="G23">
-        <v>89</v>
+        <v>38.88</v>
       </c>
       <c r="H23">
+        <v>85.37</v>
+      </c>
+      <c r="I23">
+        <v>89.05</v>
+      </c>
+      <c r="J23">
         <v>81.8</v>
-      </c>
-      <c r="I23">
-        <v>54</v>
-      </c>
-      <c r="J23" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
